--- a/output/0/tRNA-Cys-GCA-16-1.xlsx
+++ b/output/0/tRNA-Cys-GCA-16-1.xlsx
@@ -12,57 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>chr7</t>
-  </si>
-  <si>
-    <t>149243425</t>
-  </si>
-  <si>
-    <t>149243448</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>149243445</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>GAGATGGAAGTGAGCTGAGG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>93% (73)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 66%, Moreno-Mateos: 93%</t>
   </si>
   <si>
     <t>149243676</t>
   </si>
   <si>
     <t>149243699</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>-</t>
@@ -74,7 +35,13 @@
     <t>150,150,150</t>
   </si>
   <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
     <t>GGGCACCTGGATTTGAACCA</t>
+  </si>
+  <si>
+    <t>AGG</t>
   </si>
   <si>
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
@@ -137,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -160,10 +127,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -181,83 +148,24 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
         <v>3</v>
       </c>
     </row>
